--- a/biology/Médecine/Radiodensité/Radiodensité.xlsx
+++ b/biology/Médecine/Radiodensité/Radiodensité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Radiodensit%C3%A9</t>
+          <t>Radiodensité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Radiodensité (ou radio-opacité) est l'opacité à l'onde radio et à rayons X portion du spectre électromagnétique : autrement dit, l'incapacité relative de ces types de rayonnement électromagnétique de passer à travers un matériau particulier. 
-Radiotransparence ou hypodensité indique un plus grande passage à rayons X photons[1] et est analogue à la transparence à la lumière visible. Les matériaux qui inhibent le passage du rayonnement électromagnétique sont appelés radiodense ou radio-opaque, tandis que ceux qui permettent le rayonnement de passer plus librement sont dénommés radiotransparent. Les volumes de matériaux radio-opaques ont une apparence blanche sur la radiographie par rapport à l'apparence relativement plus sombre des volumes radiotransparent. Par exemple, sur la radiographie typique, les os semblent blanc ou gris clair (radio-opaque), alors que les muscles et la peau semblent noir ou gris foncé, étant la plupart du temps invisible (radiolucent).
+Radiotransparence ou hypodensité indique un plus grande passage à rayons X photons et est analogue à la transparence à la lumière visible. Les matériaux qui inhibent le passage du rayonnement électromagnétique sont appelés radiodense ou radio-opaque, tandis que ceux qui permettent le rayonnement de passer plus librement sont dénommés radiotransparent. Les volumes de matériaux radio-opaques ont une apparence blanche sur la radiographie par rapport à l'apparence relativement plus sombre des volumes radiotransparent. Par exemple, sur la radiographie typique, les os semblent blanc ou gris clair (radio-opaque), alors que les muscles et la peau semblent noir ou gris foncé, étant la plupart du temps invisible (radiolucent).
 Bien que le terme radio-opacité est plus couramment utilisé dans le contexte de comparaison qualitative, la radiodensité peut également être quantifiée selon l'échelle de Hounsfield. Sur l'échelle de Hounsfield, l'eau distillée a une valeur de 0 unités Hounsfield (HU), tandis que l'air est spécifié comme -1.000 HU.
 Dans la médecine moderne, les substances radiodenses sont celles qui ne permettent pas aux rayons X ou un rayonnement similaire à passer. La radiographie a été révolutionné par l'agent de contraste radiodense, qui peut être passé à travers la circulation sanguine, l'Appareil digestif , ou dans le liquide céphalorachidien et il est utilisé pour mettre en évidence la tomodensitométrie (CT -SCAN) ou images à rayons X. La radio-opacité est l'un des éléments clés dans la conception de divers dispositifs tels que des fils de guidage ou des stents qui sont utilisés au cours d'intervention  radiologique. La radio-opacité d'un dispositif endovasculaire donné est important car elle permet au dispositif d'être suivi au cours de la procédure interventionnelle. Les deux principaux facteurs qui contribuent à la radio-opacité d'un matériau sont la densité et le nombre atomique. Deux éléments radiodenses couramment utilisés dans l'imagerie médicale sont le baryum et l' iode.
-Les dispositifs médicaux contiennent souvent un radio-opacifiant pour améliorer la visualisation lors de l'implantation des dispositifs temporaires d'implantation, tels que des cathéters ou des fils de guidage, ou pour surveiller la position des dispositifs médicaux implantés de façon permanente, tels que les stents, les implants de la hanche et du genou, et des vis. Les implants métalliques ont généralement un radio-contraste suffisant pour qu'un radio-opacifiant additionnel ne soit pas nécessaire. Cependant, les dispositifs à base de polymère contiennent habituellement des matériaux à fort contraste de densité d'électrons par rapport au tissu environnant. Les exemples de matériaux de contraste comprennent le titane, le tungstène, le sulfate de baryum[2] et l' oxyde de zirconium. 
-Certaines solutions impliquent une liaison directe d'éléments lourds, par exemple l'iode, à des chaînes polymériques afin d'obtenir un matériau plus homogène qui présente la moindre criticité d'interface[3]. Lors de l' essai d' un nouveau dispositif médical pour la soumission réglementaire, les fabricants d'appareils évaluent généralement le radiocontrast selon des « méthodes d'essai pour la détermination de la Radiopacité à l'usage médical »[4].
+Les dispositifs médicaux contiennent souvent un radio-opacifiant pour améliorer la visualisation lors de l'implantation des dispositifs temporaires d'implantation, tels que des cathéters ou des fils de guidage, ou pour surveiller la position des dispositifs médicaux implantés de façon permanente, tels que les stents, les implants de la hanche et du genou, et des vis. Les implants métalliques ont généralement un radio-contraste suffisant pour qu'un radio-opacifiant additionnel ne soit pas nécessaire. Cependant, les dispositifs à base de polymère contiennent habituellement des matériaux à fort contraste de densité d'électrons par rapport au tissu environnant. Les exemples de matériaux de contraste comprennent le titane, le tungstène, le sulfate de baryum et l' oxyde de zirconium. 
+Certaines solutions impliquent une liaison directe d'éléments lourds, par exemple l'iode, à des chaînes polymériques afin d'obtenir un matériau plus homogène qui présente la moindre criticité d'interface. Lors de l' essai d' un nouveau dispositif médical pour la soumission réglementaire, les fabricants d'appareils évaluent généralement le radiocontrast selon des « méthodes d'essai pour la détermination de la Radiopacité à l'usage médical ».
 </t>
         </is>
       </c>
